--- a/natmiOut/OldD2/LR-pairs_lrc2p/Tnfsf13-Tnfrsf1a.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Tnfsf13-Tnfrsf1a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Tnfrsf1a</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.376315545296763</v>
+        <v>0.7536765000000001</v>
       </c>
       <c r="H2">
-        <v>0.376315545296763</v>
+        <v>1.507353</v>
       </c>
       <c r="I2">
-        <v>0.0398482956720743</v>
+        <v>0.07241044948256109</v>
       </c>
       <c r="J2">
-        <v>0.0398482956720743</v>
+        <v>0.05015328104483915</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>48.5505643347442</v>
+        <v>49.0911085</v>
       </c>
       <c r="N2">
-        <v>48.5505643347442</v>
+        <v>98.18221700000001</v>
       </c>
       <c r="O2">
-        <v>0.2033029799830369</v>
+        <v>0.1999782101047527</v>
       </c>
       <c r="P2">
-        <v>0.2033029799830369</v>
+        <v>0.1476650982825601</v>
       </c>
       <c r="Q2">
-        <v>18.27033209209484</v>
+        <v>36.99881483540026</v>
       </c>
       <c r="R2">
-        <v>18.27033209209484</v>
+        <v>147.995259341601</v>
       </c>
       <c r="S2">
-        <v>0.008101277257377857</v>
+        <v>0.01448051208040318</v>
       </c>
       <c r="T2">
-        <v>0.008101277257377857</v>
+        <v>0.007405889174679033</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.376315545296763</v>
+        <v>0.7536765000000001</v>
       </c>
       <c r="H3">
-        <v>0.376315545296763</v>
+        <v>1.507353</v>
       </c>
       <c r="I3">
-        <v>0.0398482956720743</v>
+        <v>0.07241044948256109</v>
       </c>
       <c r="J3">
-        <v>0.0398482956720743</v>
+        <v>0.05015328104483915</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>45.8197927672505</v>
+        <v>49.64327433333333</v>
       </c>
       <c r="N3">
-        <v>45.8197927672505</v>
+        <v>148.929823</v>
       </c>
       <c r="O3">
-        <v>0.1918680151184345</v>
+        <v>0.2022275203852691</v>
       </c>
       <c r="P3">
-        <v>0.1918680151184345</v>
+        <v>0.2239890035330867</v>
       </c>
       <c r="Q3">
-        <v>17.24270030059255</v>
+        <v>37.4149692480865</v>
       </c>
       <c r="R3">
-        <v>17.24270030059255</v>
+        <v>224.489815488519</v>
       </c>
       <c r="S3">
-        <v>0.007645613396453399</v>
+        <v>0.01464338564884112</v>
       </c>
       <c r="T3">
-        <v>0.007645613396453399</v>
+        <v>0.01123378344514837</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.376315545296763</v>
+        <v>0.7536765000000001</v>
       </c>
       <c r="H4">
-        <v>0.376315545296763</v>
+        <v>1.507353</v>
       </c>
       <c r="I4">
-        <v>0.0398482956720743</v>
+        <v>0.07241044948256109</v>
       </c>
       <c r="J4">
-        <v>0.0398482956720743</v>
+        <v>0.05015328104483915</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>45.7462864034789</v>
+        <v>46.493336</v>
       </c>
       <c r="N4">
-        <v>45.7462864034789</v>
+        <v>139.480008</v>
       </c>
       <c r="O4">
-        <v>0.1915602110175501</v>
+        <v>0.1893958885666406</v>
       </c>
       <c r="P4">
-        <v>0.1915602110175501</v>
+        <v>0.209776573794135</v>
       </c>
       <c r="Q4">
-        <v>17.21503871322706</v>
+        <v>35.040934749804</v>
       </c>
       <c r="R4">
-        <v>17.21503871322706</v>
+        <v>210.245608498824</v>
       </c>
       <c r="S4">
-        <v>0.007633347927632282</v>
+        <v>0.01371424142125949</v>
       </c>
       <c r="T4">
-        <v>0.007633347927632282</v>
+        <v>0.01052098346212069</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.376315545296763</v>
+        <v>0.7536765000000001</v>
       </c>
       <c r="H5">
-        <v>0.376315545296763</v>
+        <v>1.507353</v>
       </c>
       <c r="I5">
-        <v>0.0398482956720743</v>
+        <v>0.07241044948256109</v>
       </c>
       <c r="J5">
-        <v>0.0398482956720743</v>
+        <v>0.05015328104483915</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>47.4973459622794</v>
+        <v>47.50960133333334</v>
       </c>
       <c r="N5">
-        <v>47.4973459622794</v>
+        <v>142.528804</v>
       </c>
       <c r="O5">
-        <v>0.1988926824586115</v>
+        <v>0.193535760909338</v>
       </c>
       <c r="P5">
-        <v>0.1988926824586115</v>
+        <v>0.2143619332893629</v>
       </c>
       <c r="Q5">
-        <v>17.87398964594417</v>
+        <v>35.80687004930201</v>
       </c>
       <c r="R5">
-        <v>17.87398964594417</v>
+        <v>214.841220295812</v>
       </c>
       <c r="S5">
-        <v>0.007925534417622736</v>
+        <v>0.01401401143839464</v>
       </c>
       <c r="T5">
-        <v>0.007925534417622736</v>
+        <v>0.01075095428557648</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.376315545296763</v>
+        <v>0.7536765000000001</v>
       </c>
       <c r="H6">
-        <v>0.376315545296763</v>
+        <v>1.507353</v>
       </c>
       <c r="I6">
-        <v>0.0398482956720743</v>
+        <v>0.07241044948256109</v>
       </c>
       <c r="J6">
-        <v>0.0398482956720743</v>
+        <v>0.05015328104483915</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>29.1032015654885</v>
+        <v>30.287135</v>
       </c>
       <c r="N6">
-        <v>29.1032015654885</v>
+        <v>90.861405</v>
       </c>
       <c r="O6">
-        <v>0.1218681530561857</v>
+        <v>0.1233780868179216</v>
       </c>
       <c r="P6">
-        <v>0.1218681530561857</v>
+        <v>0.1366546683236589</v>
       </c>
       <c r="Q6">
-        <v>10.95198716699841</v>
+        <v>22.82670190182751</v>
       </c>
       <c r="R6">
-        <v>10.95198716699841</v>
+        <v>136.960211410965</v>
       </c>
       <c r="S6">
-        <v>0.004856238195992493</v>
+        <v>0.008933862722784148</v>
       </c>
       <c r="T6">
-        <v>0.004856238195992493</v>
+        <v>0.00685367998652574</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.376315545296763</v>
+        <v>0.7536765000000001</v>
       </c>
       <c r="H7">
-        <v>0.376315545296763</v>
+        <v>1.507353</v>
       </c>
       <c r="I7">
-        <v>0.0398482956720743</v>
+        <v>0.07241044948256109</v>
       </c>
       <c r="J7">
-        <v>0.0398482956720743</v>
+        <v>0.05015328104483915</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>22.0917252885711</v>
+        <v>22.4578325</v>
       </c>
       <c r="N7">
-        <v>22.0917252885711</v>
+        <v>44.915665</v>
       </c>
       <c r="O7">
-        <v>0.09250795836618125</v>
+        <v>0.09148453321607808</v>
       </c>
       <c r="P7">
-        <v>0.09250795836618125</v>
+        <v>0.06755272277719647</v>
       </c>
       <c r="Q7">
-        <v>8.313459648514922</v>
+        <v>16.92594059618625</v>
       </c>
       <c r="R7">
-        <v>8.313459648514922</v>
+        <v>67.70376238474502</v>
       </c>
       <c r="S7">
-        <v>0.00368628447699553</v>
+        <v>0.006624436170878504</v>
       </c>
       <c r="T7">
-        <v>0.00368628447699553</v>
+        <v>0.003387990690788842</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>3.35356565893555</v>
+        <v>0.1204533333333333</v>
       </c>
       <c r="H8">
-        <v>3.35356565893555</v>
+        <v>0.36136</v>
       </c>
       <c r="I8">
-        <v>0.3551112294008332</v>
+        <v>0.01157271058383726</v>
       </c>
       <c r="J8">
-        <v>0.3551112294008332</v>
+        <v>0.01202332143722344</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>48.5505643347442</v>
+        <v>49.0911085</v>
       </c>
       <c r="N8">
-        <v>48.5505643347442</v>
+        <v>98.18221700000001</v>
       </c>
       <c r="O8">
-        <v>0.2033029799830369</v>
+        <v>0.1999782101047527</v>
       </c>
       <c r="P8">
-        <v>0.2033029799830369</v>
+        <v>0.1476650982825601</v>
       </c>
       <c r="Q8">
-        <v>162.8175052749392</v>
+        <v>5.913187655853334</v>
       </c>
       <c r="R8">
-        <v>162.8175052749392</v>
+        <v>35.47912593512</v>
       </c>
       <c r="S8">
-        <v>0.07219517116262922</v>
+        <v>0.002314289948616103</v>
       </c>
       <c r="T8">
-        <v>0.07219517116262922</v>
+        <v>0.001775424941710412</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>3.35356565893555</v>
+        <v>0.1204533333333333</v>
       </c>
       <c r="H9">
-        <v>3.35356565893555</v>
+        <v>0.36136</v>
       </c>
       <c r="I9">
-        <v>0.3551112294008332</v>
+        <v>0.01157271058383726</v>
       </c>
       <c r="J9">
-        <v>0.3551112294008332</v>
+        <v>0.01202332143722344</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>45.8197927672505</v>
+        <v>49.64327433333333</v>
       </c>
       <c r="N9">
-        <v>45.8197927672505</v>
+        <v>148.929823</v>
       </c>
       <c r="O9">
-        <v>0.1918680151184345</v>
+        <v>0.2022275203852691</v>
       </c>
       <c r="P9">
-        <v>0.1918680151184345</v>
+        <v>0.2239890035330867</v>
       </c>
       <c r="Q9">
-        <v>153.6596835237947</v>
+        <v>5.979697871031111</v>
       </c>
       <c r="R9">
-        <v>153.6596835237947</v>
+        <v>53.81728083928</v>
       </c>
       <c r="S9">
-        <v>0.06813448673140493</v>
+        <v>0.002340320565505769</v>
       </c>
       <c r="T9">
-        <v>0.06813448673140493</v>
+        <v>0.002693091787881679</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>3.35356565893555</v>
+        <v>0.1204533333333333</v>
       </c>
       <c r="H10">
-        <v>3.35356565893555</v>
+        <v>0.36136</v>
       </c>
       <c r="I10">
-        <v>0.3551112294008332</v>
+        <v>0.01157271058383726</v>
       </c>
       <c r="J10">
-        <v>0.3551112294008332</v>
+        <v>0.01202332143722344</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>45.7462864034789</v>
+        <v>46.493336</v>
       </c>
       <c r="N10">
-        <v>45.7462864034789</v>
+        <v>139.480008</v>
       </c>
       <c r="O10">
-        <v>0.1915602110175501</v>
+        <v>0.1893958885666406</v>
       </c>
       <c r="P10">
-        <v>0.1915602110175501</v>
+        <v>0.209776573794135</v>
       </c>
       <c r="Q10">
-        <v>153.4131751065371</v>
+        <v>5.600277298986667</v>
       </c>
       <c r="R10">
-        <v>153.4131751065371</v>
+        <v>50.40249569088</v>
       </c>
       <c r="S10">
-        <v>0.06802518203872526</v>
+        <v>0.002191823804150424</v>
       </c>
       <c r="T10">
-        <v>0.06802518203872526</v>
+        <v>0.002522211176726309</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>3.35356565893555</v>
+        <v>0.1204533333333333</v>
       </c>
       <c r="H11">
-        <v>3.35356565893555</v>
+        <v>0.36136</v>
       </c>
       <c r="I11">
-        <v>0.3551112294008332</v>
+        <v>0.01157271058383726</v>
       </c>
       <c r="J11">
-        <v>0.3551112294008332</v>
+        <v>0.01202332143722344</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>47.4973459622794</v>
+        <v>47.50960133333334</v>
       </c>
       <c r="N11">
-        <v>47.4973459622794</v>
+        <v>142.528804</v>
       </c>
       <c r="O11">
-        <v>0.1988926824586115</v>
+        <v>0.193535760909338</v>
       </c>
       <c r="P11">
-        <v>0.1988926824586115</v>
+        <v>0.2143619332893629</v>
       </c>
       <c r="Q11">
-        <v>159.2854683096813</v>
+        <v>5.722689845937778</v>
       </c>
       <c r="R11">
-        <v>159.2854683096813</v>
+        <v>51.50420861344001</v>
       </c>
       <c r="S11">
-        <v>0.07062902498670706</v>
+        <v>0.002239733348626493</v>
       </c>
       <c r="T11">
-        <v>0.07062902498670706</v>
+        <v>0.002577342427842659</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>3.35356565893555</v>
+        <v>0.1204533333333333</v>
       </c>
       <c r="H12">
-        <v>3.35356565893555</v>
+        <v>0.36136</v>
       </c>
       <c r="I12">
-        <v>0.3551112294008332</v>
+        <v>0.01157271058383726</v>
       </c>
       <c r="J12">
-        <v>0.3551112294008332</v>
+        <v>0.01202332143722344</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>29.1032015654885</v>
+        <v>30.287135</v>
       </c>
       <c r="N12">
-        <v>29.1032015654885</v>
+        <v>90.861405</v>
       </c>
       <c r="O12">
-        <v>0.1218681530561857</v>
+        <v>0.1233780868179216</v>
       </c>
       <c r="P12">
-        <v>0.1218681530561857</v>
+        <v>0.1366546683236589</v>
       </c>
       <c r="Q12">
-        <v>97.59949733510157</v>
+        <v>3.648186367866667</v>
       </c>
       <c r="R12">
-        <v>97.59949733510157</v>
+        <v>32.83367731080001</v>
       </c>
       <c r="S12">
-        <v>0.04327674965659101</v>
+        <v>0.001427818891131354</v>
       </c>
       <c r="T12">
-        <v>0.04327674965659101</v>
+        <v>0.001643043003152507</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>3.35356565893555</v>
+        <v>0.1204533333333333</v>
       </c>
       <c r="H13">
-        <v>3.35356565893555</v>
+        <v>0.36136</v>
       </c>
       <c r="I13">
-        <v>0.3551112294008332</v>
+        <v>0.01157271058383726</v>
       </c>
       <c r="J13">
-        <v>0.3551112294008332</v>
+        <v>0.01202332143722344</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>22.0917252885711</v>
+        <v>22.4578325</v>
       </c>
       <c r="N13">
-        <v>22.0917252885711</v>
+        <v>44.915665</v>
       </c>
       <c r="O13">
-        <v>0.09250795836618125</v>
+        <v>0.09148453321607808</v>
       </c>
       <c r="P13">
-        <v>0.09250795836618125</v>
+        <v>0.06755272277719647</v>
       </c>
       <c r="Q13">
-        <v>74.0860512743901</v>
+        <v>2.705120784066667</v>
       </c>
       <c r="R13">
-        <v>74.0860512743901</v>
+        <v>16.2307247044</v>
       </c>
       <c r="S13">
-        <v>0.03285061482477572</v>
+        <v>0.001058724025807118</v>
       </c>
       <c r="T13">
-        <v>0.03285061482477572</v>
+        <v>0.0008122080999098788</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.36549438862542</v>
+        <v>3.418481</v>
       </c>
       <c r="H14">
-        <v>4.36549438862542</v>
+        <v>10.255443</v>
       </c>
       <c r="I14">
-        <v>0.4622650148973883</v>
+        <v>0.3284350059443208</v>
       </c>
       <c r="J14">
-        <v>0.4622650148973883</v>
+        <v>0.341223399574173</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>48.5505643347442</v>
+        <v>49.0911085</v>
       </c>
       <c r="N14">
-        <v>48.5505643347442</v>
+        <v>98.18221700000001</v>
       </c>
       <c r="O14">
-        <v>0.2033029799830369</v>
+        <v>0.1999782101047527</v>
       </c>
       <c r="P14">
-        <v>0.2033029799830369</v>
+        <v>0.1476650982825601</v>
       </c>
       <c r="Q14">
-        <v>211.9472161679232</v>
+        <v>167.8170216761885</v>
       </c>
       <c r="R14">
-        <v>211.9472161679232</v>
+        <v>1006.902130057131</v>
       </c>
       <c r="S14">
-        <v>0.09397985507054199</v>
+        <v>0.06567984462448907</v>
       </c>
       <c r="T14">
-        <v>0.09397985507054199</v>
+        <v>0.05038678683442954</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.36549438862542</v>
+        <v>3.418481</v>
       </c>
       <c r="H15">
-        <v>4.36549438862542</v>
+        <v>10.255443</v>
       </c>
       <c r="I15">
-        <v>0.4622650148973883</v>
+        <v>0.3284350059443208</v>
       </c>
       <c r="J15">
-        <v>0.4622650148973883</v>
+        <v>0.341223399574173</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>45.8197927672505</v>
+        <v>49.64327433333333</v>
       </c>
       <c r="N15">
-        <v>45.8197927672505</v>
+        <v>148.929823</v>
       </c>
       <c r="O15">
-        <v>0.1918680151184345</v>
+        <v>0.2022275203852691</v>
       </c>
       <c r="P15">
-        <v>0.1918680151184345</v>
+        <v>0.2239890035330867</v>
       </c>
       <c r="Q15">
-        <v>200.0260482134117</v>
+        <v>169.7045900862877</v>
       </c>
       <c r="R15">
-        <v>200.0260482134117</v>
+        <v>1527.341310776589</v>
       </c>
       <c r="S15">
-        <v>0.08869387086705545</v>
+        <v>0.06641859685984111</v>
       </c>
       <c r="T15">
-        <v>0.08869387086705545</v>
+        <v>0.07643028925279129</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.36549438862542</v>
+        <v>3.418481</v>
       </c>
       <c r="H16">
-        <v>4.36549438862542</v>
+        <v>10.255443</v>
       </c>
       <c r="I16">
-        <v>0.4622650148973883</v>
+        <v>0.3284350059443208</v>
       </c>
       <c r="J16">
-        <v>0.4622650148973883</v>
+        <v>0.341223399574173</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>45.7462864034789</v>
+        <v>46.493336</v>
       </c>
       <c r="N16">
-        <v>45.7462864034789</v>
+        <v>139.480008</v>
       </c>
       <c r="O16">
-        <v>0.1915602110175501</v>
+        <v>0.1893958885666406</v>
       </c>
       <c r="P16">
-        <v>0.1915602110175501</v>
+        <v>0.209776573794135</v>
       </c>
       <c r="Q16">
-        <v>199.7051565948385</v>
+        <v>158.936585742616</v>
       </c>
       <c r="R16">
-        <v>199.7051565948385</v>
+        <v>1430.429271683544</v>
       </c>
       <c r="S16">
-        <v>0.08855158379977467</v>
+        <v>0.06220423978721451</v>
       </c>
       <c r="T16">
-        <v>0.08855158379977467</v>
+        <v>0.07158067566105709</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.36549438862542</v>
+        <v>3.418481</v>
       </c>
       <c r="H17">
-        <v>4.36549438862542</v>
+        <v>10.255443</v>
       </c>
       <c r="I17">
-        <v>0.4622650148973883</v>
+        <v>0.3284350059443208</v>
       </c>
       <c r="J17">
-        <v>0.4622650148973883</v>
+        <v>0.341223399574173</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>47.4973459622794</v>
+        <v>47.50960133333334</v>
       </c>
       <c r="N17">
-        <v>47.4973459622794</v>
+        <v>142.528804</v>
       </c>
       <c r="O17">
-        <v>0.1988926824586115</v>
+        <v>0.193535760909338</v>
       </c>
       <c r="P17">
-        <v>0.1988926824586115</v>
+        <v>0.2143619332893629</v>
       </c>
       <c r="Q17">
-        <v>207.349397272931</v>
+        <v>162.4106694755747</v>
       </c>
       <c r="R17">
-        <v>207.349397272931</v>
+        <v>1461.696025280172</v>
       </c>
       <c r="S17">
-        <v>0.09194112881971156</v>
+        <v>0.06356391878469707</v>
       </c>
       <c r="T17">
-        <v>0.09194112881971156</v>
+        <v>0.07314530761628849</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>4.36549438862542</v>
+        <v>3.418481</v>
       </c>
       <c r="H18">
-        <v>4.36549438862542</v>
+        <v>10.255443</v>
       </c>
       <c r="I18">
-        <v>0.4622650148973883</v>
+        <v>0.3284350059443208</v>
       </c>
       <c r="J18">
-        <v>0.4622650148973883</v>
+        <v>0.341223399574173</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>29.1032015654885</v>
+        <v>30.287135</v>
       </c>
       <c r="N18">
-        <v>29.1032015654885</v>
+        <v>90.861405</v>
       </c>
       <c r="O18">
-        <v>0.1218681530561857</v>
+        <v>0.1233780868179216</v>
       </c>
       <c r="P18">
-        <v>0.1218681530561857</v>
+        <v>0.1366546683236589</v>
       </c>
       <c r="Q18">
-        <v>127.0498631251746</v>
+        <v>103.535995541935</v>
       </c>
       <c r="R18">
-        <v>127.0498631251746</v>
+        <v>931.8239598774152</v>
       </c>
       <c r="S18">
-        <v>0.05633538358803488</v>
+        <v>0.040521682677443</v>
       </c>
       <c r="T18">
-        <v>0.05633538358803488</v>
+        <v>0.04662977049307993</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>4.36549438862542</v>
+        <v>3.418481</v>
       </c>
       <c r="H19">
-        <v>4.36549438862542</v>
+        <v>10.255443</v>
       </c>
       <c r="I19">
-        <v>0.4622650148973883</v>
+        <v>0.3284350059443208</v>
       </c>
       <c r="J19">
-        <v>0.4622650148973883</v>
+        <v>0.341223399574173</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>22.0917252885711</v>
+        <v>22.4578325</v>
       </c>
       <c r="N19">
-        <v>22.0917252885711</v>
+        <v>44.915665</v>
       </c>
       <c r="O19">
-        <v>0.09250795836618125</v>
+        <v>0.09148453321607808</v>
       </c>
       <c r="P19">
-        <v>0.09250795836618125</v>
+        <v>0.06755272277719647</v>
       </c>
       <c r="Q19">
-        <v>96.44130278231142</v>
+        <v>76.77167370243251</v>
       </c>
       <c r="R19">
-        <v>96.44130278231142</v>
+        <v>460.6300422145951</v>
       </c>
       <c r="S19">
-        <v>0.04276319275226975</v>
+        <v>0.03004672321063602</v>
       </c>
       <c r="T19">
-        <v>0.04276319275226975</v>
+        <v>0.02305056971652665</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.944953715937822</v>
+        <v>4.597592</v>
       </c>
       <c r="H20">
-        <v>0.944953715937822</v>
+        <v>13.792776</v>
       </c>
       <c r="I20">
-        <v>0.1000617581169043</v>
+        <v>0.44171962805982</v>
       </c>
       <c r="J20">
-        <v>0.1000617581169043</v>
+        <v>0.4589190263438705</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>48.5505643347442</v>
+        <v>49.0911085</v>
       </c>
       <c r="N20">
-        <v>48.5505643347442</v>
+        <v>98.18221700000001</v>
       </c>
       <c r="O20">
-        <v>0.2033029799830369</v>
+        <v>0.1999782101047527</v>
       </c>
       <c r="P20">
-        <v>0.2033029799830369</v>
+        <v>0.1476650982825601</v>
       </c>
       <c r="Q20">
-        <v>45.87803617899483</v>
+        <v>225.700887710732</v>
       </c>
       <c r="R20">
-        <v>45.87803617899483</v>
+        <v>1354.205326264392</v>
       </c>
       <c r="S20">
-        <v>0.02034285360750847</v>
+        <v>0.08833430058753988</v>
       </c>
       <c r="T20">
-        <v>0.02034285360750847</v>
+        <v>0.06776632312880444</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.944953715937822</v>
+        <v>4.597592</v>
       </c>
       <c r="H21">
-        <v>0.944953715937822</v>
+        <v>13.792776</v>
       </c>
       <c r="I21">
-        <v>0.1000617581169043</v>
+        <v>0.44171962805982</v>
       </c>
       <c r="J21">
-        <v>0.1000617581169043</v>
+        <v>0.4589190263438705</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>45.8197927672505</v>
+        <v>49.64327433333333</v>
       </c>
       <c r="N21">
-        <v>45.8197927672505</v>
+        <v>148.929823</v>
       </c>
       <c r="O21">
-        <v>0.1918680151184345</v>
+        <v>0.2022275203852691</v>
       </c>
       <c r="P21">
-        <v>0.1918680151184345</v>
+        <v>0.2239890035330867</v>
       </c>
       <c r="Q21">
-        <v>43.29758343891429</v>
+        <v>228.2395209287386</v>
       </c>
       <c r="R21">
-        <v>43.29758343891429</v>
+        <v>2054.155688358648</v>
       </c>
       <c r="S21">
-        <v>0.01919865091915133</v>
+        <v>0.08932786508804075</v>
       </c>
       <c r="T21">
-        <v>0.01919865091915133</v>
+        <v>0.1027928154131379</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.944953715937822</v>
+        <v>4.597592</v>
       </c>
       <c r="H22">
-        <v>0.944953715937822</v>
+        <v>13.792776</v>
       </c>
       <c r="I22">
-        <v>0.1000617581169043</v>
+        <v>0.44171962805982</v>
       </c>
       <c r="J22">
-        <v>0.1000617581169043</v>
+        <v>0.4589190263438705</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>45.7462864034789</v>
+        <v>46.493336</v>
       </c>
       <c r="N22">
-        <v>45.7462864034789</v>
+        <v>139.480008</v>
       </c>
       <c r="O22">
-        <v>0.1915602110175501</v>
+        <v>0.1893958885666406</v>
       </c>
       <c r="P22">
-        <v>0.1915602110175501</v>
+        <v>0.209776573794135</v>
       </c>
       <c r="Q22">
-        <v>43.22812332732325</v>
+        <v>213.757389646912</v>
       </c>
       <c r="R22">
-        <v>43.22812332732325</v>
+        <v>1923.816506822208</v>
       </c>
       <c r="S22">
-        <v>0.01916785149966124</v>
+        <v>0.08365988145371558</v>
       </c>
       <c r="T22">
-        <v>0.01916785149966124</v>
+        <v>0.09627046099535752</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.944953715937822</v>
+        <v>4.597592</v>
       </c>
       <c r="H23">
-        <v>0.944953715937822</v>
+        <v>13.792776</v>
       </c>
       <c r="I23">
-        <v>0.1000617581169043</v>
+        <v>0.44171962805982</v>
       </c>
       <c r="J23">
-        <v>0.1000617581169043</v>
+        <v>0.4589190263438705</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>47.4973459622794</v>
+        <v>47.50960133333334</v>
       </c>
       <c r="N23">
-        <v>47.4973459622794</v>
+        <v>142.528804</v>
       </c>
       <c r="O23">
-        <v>0.1988926824586115</v>
+        <v>0.193535760909338</v>
       </c>
       <c r="P23">
-        <v>0.1988926824586115</v>
+        <v>0.2143619332893629</v>
       </c>
       <c r="Q23">
-        <v>44.88279356424022</v>
+        <v>218.4297630133227</v>
       </c>
       <c r="R23">
-        <v>44.88279356424022</v>
+        <v>1965.867867119904</v>
       </c>
       <c r="S23">
-        <v>0.01990155148339583</v>
+        <v>0.08548854432514703</v>
       </c>
       <c r="T23">
-        <v>0.01990155148339583</v>
+        <v>0.09837476971034415</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.944953715937822</v>
+        <v>4.597592</v>
       </c>
       <c r="H24">
-        <v>0.944953715937822</v>
+        <v>13.792776</v>
       </c>
       <c r="I24">
-        <v>0.1000617581169043</v>
+        <v>0.44171962805982</v>
       </c>
       <c r="J24">
-        <v>0.1000617581169043</v>
+        <v>0.4589190263438705</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>29.1032015654885</v>
+        <v>30.287135</v>
       </c>
       <c r="N24">
-        <v>29.1032015654885</v>
+        <v>90.861405</v>
       </c>
       <c r="O24">
-        <v>0.1218681530561857</v>
+        <v>0.1233780868179216</v>
       </c>
       <c r="P24">
-        <v>0.1218681530561857</v>
+        <v>0.1366546683236589</v>
       </c>
       <c r="Q24">
-        <v>27.5011784649958</v>
+        <v>139.24788957892</v>
       </c>
       <c r="R24">
-        <v>27.5011784649958</v>
+        <v>1253.23100621028</v>
       </c>
       <c r="S24">
-        <v>0.01219434165326192</v>
+        <v>0.05449852261994451</v>
       </c>
       <c r="T24">
-        <v>0.01219434165326192</v>
+        <v>0.06271342733243808</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,61 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.944953715937822</v>
+        <v>4.597592</v>
       </c>
       <c r="H25">
-        <v>0.944953715937822</v>
+        <v>13.792776</v>
       </c>
       <c r="I25">
-        <v>0.1000617581169043</v>
+        <v>0.44171962805982</v>
       </c>
       <c r="J25">
-        <v>0.1000617581169043</v>
+        <v>0.4589190263438705</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>22.0917252885711</v>
+        <v>22.4578325</v>
       </c>
       <c r="N25">
-        <v>22.0917252885711</v>
+        <v>44.915665</v>
       </c>
       <c r="O25">
-        <v>0.09250795836618125</v>
+        <v>0.09148453321607808</v>
       </c>
       <c r="P25">
-        <v>0.09250795836618125</v>
+        <v>0.06755272277719647</v>
       </c>
       <c r="Q25">
-        <v>20.87565790291281</v>
+        <v>103.25195103934</v>
       </c>
       <c r="R25">
-        <v>20.87565790291281</v>
+        <v>619.51170623604</v>
       </c>
       <c r="S25">
-        <v>0.00925650895392548</v>
+        <v>0.04041051398543226</v>
       </c>
       <c r="T25">
-        <v>0.00925650895392548</v>
+        <v>0.03100122976378841</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,61 +2016,61 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.4033755962673</v>
+        <v>1.101608333333333</v>
       </c>
       <c r="H26">
-        <v>0.4033755962673</v>
+        <v>3.304825</v>
       </c>
       <c r="I26">
-        <v>0.04271370191279979</v>
+        <v>0.1058384526655689</v>
       </c>
       <c r="J26">
-        <v>0.04271370191279979</v>
+        <v>0.1099595231037524</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>48.5505643347442</v>
+        <v>49.0911085</v>
       </c>
       <c r="N26">
-        <v>48.5505643347442</v>
+        <v>98.18221700000001</v>
       </c>
       <c r="O26">
-        <v>0.2033029799830369</v>
+        <v>0.1999782101047527</v>
       </c>
       <c r="P26">
-        <v>0.2033029799830369</v>
+        <v>0.1476650982825601</v>
       </c>
       <c r="Q26">
-        <v>19.58411283764135</v>
+        <v>54.07917421617083</v>
       </c>
       <c r="R26">
-        <v>19.58411283764135</v>
+        <v>324.475045297025</v>
       </c>
       <c r="S26">
-        <v>0.008683822884979341</v>
+        <v>0.02116538432431705</v>
       </c>
       <c r="T26">
-        <v>0.008683822884979341</v>
+        <v>0.01623718378621904</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,61 +2078,61 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.4033755962673</v>
+        <v>1.101608333333333</v>
       </c>
       <c r="H27">
-        <v>0.4033755962673</v>
+        <v>3.304825</v>
       </c>
       <c r="I27">
-        <v>0.04271370191279979</v>
+        <v>0.1058384526655689</v>
       </c>
       <c r="J27">
-        <v>0.04271370191279979</v>
+        <v>0.1099595231037524</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>45.8197927672505</v>
+        <v>49.64327433333333</v>
       </c>
       <c r="N27">
-        <v>45.8197927672505</v>
+        <v>148.929823</v>
       </c>
       <c r="O27">
-        <v>0.1918680151184345</v>
+        <v>0.2022275203852691</v>
       </c>
       <c r="P27">
-        <v>0.1918680151184345</v>
+        <v>0.2239890035330867</v>
       </c>
       <c r="Q27">
-        <v>18.48258622833379</v>
+        <v>54.68744469955277</v>
       </c>
       <c r="R27">
-        <v>18.48258622833379</v>
+        <v>492.187002295975</v>
       </c>
       <c r="S27">
-        <v>0.008195393204369374</v>
+        <v>0.02140344784397167</v>
       </c>
       <c r="T27">
-        <v>0.008195393204369374</v>
+        <v>0.02462972400898293</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,61 +2140,61 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.4033755962673</v>
+        <v>1.101608333333333</v>
       </c>
       <c r="H28">
-        <v>0.4033755962673</v>
+        <v>3.304825</v>
       </c>
       <c r="I28">
-        <v>0.04271370191279979</v>
+        <v>0.1058384526655689</v>
       </c>
       <c r="J28">
-        <v>0.04271370191279979</v>
+        <v>0.1099595231037524</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>45.7462864034789</v>
+        <v>46.493336</v>
       </c>
       <c r="N28">
-        <v>45.7462864034789</v>
+        <v>139.480008</v>
       </c>
       <c r="O28">
-        <v>0.1915602110175501</v>
+        <v>0.1893958885666406</v>
       </c>
       <c r="P28">
-        <v>0.1915602110175501</v>
+        <v>0.209776573794135</v>
       </c>
       <c r="Q28">
-        <v>18.45293555501798</v>
+        <v>51.21744638206666</v>
       </c>
       <c r="R28">
-        <v>18.45293555501798</v>
+        <v>460.9570174386</v>
       </c>
       <c r="S28">
-        <v>0.008182245751756662</v>
+        <v>0.02004536778711375</v>
       </c>
       <c r="T28">
-        <v>0.008182245751756662</v>
+        <v>0.02306693201274221</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,61 +2202,61 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.4033755962673</v>
+        <v>1.101608333333333</v>
       </c>
       <c r="H29">
-        <v>0.4033755962673</v>
+        <v>3.304825</v>
       </c>
       <c r="I29">
-        <v>0.04271370191279979</v>
+        <v>0.1058384526655689</v>
       </c>
       <c r="J29">
-        <v>0.04271370191279979</v>
+        <v>0.1099595231037524</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>47.4973459622794</v>
+        <v>47.50960133333334</v>
       </c>
       <c r="N29">
-        <v>47.4973459622794</v>
+        <v>142.528804</v>
       </c>
       <c r="O29">
-        <v>0.1988926824586115</v>
+        <v>0.193535760909338</v>
       </c>
       <c r="P29">
-        <v>0.1988926824586115</v>
+        <v>0.2143619332893629</v>
       </c>
       <c r="Q29">
-        <v>19.15927024864868</v>
+        <v>52.33697274214445</v>
       </c>
       <c r="R29">
-        <v>19.15927024864868</v>
+        <v>471.0327546793001</v>
       </c>
       <c r="S29">
-        <v>0.008495442751174274</v>
+        <v>0.02048352547009783</v>
       </c>
       <c r="T29">
-        <v>0.008495442751174274</v>
+        <v>0.02357113595609673</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,61 +2264,61 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.4033755962673</v>
+        <v>1.101608333333333</v>
       </c>
       <c r="H30">
-        <v>0.4033755962673</v>
+        <v>3.304825</v>
       </c>
       <c r="I30">
-        <v>0.04271370191279979</v>
+        <v>0.1058384526655689</v>
       </c>
       <c r="J30">
-        <v>0.04271370191279979</v>
+        <v>0.1099595231037524</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>29.1032015654885</v>
+        <v>30.287135</v>
       </c>
       <c r="N30">
-        <v>29.1032015654885</v>
+        <v>90.861405</v>
       </c>
       <c r="O30">
-        <v>0.1218681530561857</v>
+        <v>0.1233780868179216</v>
       </c>
       <c r="P30">
-        <v>0.1218681530561857</v>
+        <v>0.1366546683236589</v>
       </c>
       <c r="Q30">
-        <v>11.73952128476634</v>
+        <v>33.36456030879167</v>
       </c>
       <c r="R30">
-        <v>11.73952128476634</v>
+        <v>300.281042779125</v>
       </c>
       <c r="S30">
-        <v>0.005205439962305376</v>
+        <v>0.01305814580164704</v>
       </c>
       <c r="T30">
-        <v>0.005205439962305376</v>
+        <v>0.01502648215877099</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,61 +2326,433 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1.101608333333333</v>
+      </c>
+      <c r="H31">
+        <v>3.304825</v>
+      </c>
+      <c r="I31">
+        <v>0.1058384526655689</v>
+      </c>
+      <c r="J31">
+        <v>0.1099595231037524</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>22.4578325</v>
+      </c>
+      <c r="N31">
+        <v>44.915665</v>
+      </c>
+      <c r="O31">
+        <v>0.09148453321607808</v>
+      </c>
+      <c r="P31">
+        <v>0.06755272277719647</v>
+      </c>
+      <c r="Q31">
+        <v>24.73973543060417</v>
+      </c>
+      <c r="R31">
+        <v>148.438412583625</v>
+      </c>
+      <c r="S31">
+        <v>0.009682581438421545</v>
+      </c>
+      <c r="T31">
+        <v>0.007428065180940517</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0.416583</v>
+      </c>
+      <c r="H32">
+        <v>0.8331660000000001</v>
+      </c>
+      <c r="I32">
+        <v>0.04002375326389206</v>
+      </c>
+      <c r="J32">
+        <v>0.02772144849614155</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>49.0911085</v>
+      </c>
+      <c r="N32">
+        <v>98.18221700000001</v>
+      </c>
+      <c r="O32">
+        <v>0.1999782101047527</v>
+      </c>
+      <c r="P32">
+        <v>0.1476650982825601</v>
+      </c>
+      <c r="Q32">
+        <v>20.4505212522555</v>
+      </c>
+      <c r="R32">
+        <v>81.80208500902201</v>
+      </c>
+      <c r="S32">
+        <v>0.008003878539387386</v>
+      </c>
+      <c r="T32">
+        <v>0.004093490416717671</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0.416583</v>
+      </c>
+      <c r="H33">
+        <v>0.8331660000000001</v>
+      </c>
+      <c r="I33">
+        <v>0.04002375326389206</v>
+      </c>
+      <c r="J33">
+        <v>0.02772144849614155</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>49.64327433333333</v>
+      </c>
+      <c r="N33">
+        <v>148.929823</v>
+      </c>
+      <c r="O33">
+        <v>0.2022275203852691</v>
+      </c>
+      <c r="P33">
+        <v>0.2239890035330867</v>
+      </c>
+      <c r="Q33">
+        <v>20.680544151603</v>
+      </c>
+      <c r="R33">
+        <v>124.083264909618</v>
+      </c>
+      <c r="S33">
+        <v>0.008093904379068713</v>
+      </c>
+      <c r="T33">
+        <v>0.00620929962514453</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0.416583</v>
+      </c>
+      <c r="H34">
+        <v>0.8331660000000001</v>
+      </c>
+      <c r="I34">
+        <v>0.04002375326389206</v>
+      </c>
+      <c r="J34">
+        <v>0.02772144849614155</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>46.493336</v>
+      </c>
+      <c r="N34">
+        <v>139.480008</v>
+      </c>
+      <c r="O34">
+        <v>0.1893958885666406</v>
+      </c>
+      <c r="P34">
+        <v>0.209776573794135</v>
+      </c>
+      <c r="Q34">
+        <v>19.368333390888</v>
+      </c>
+      <c r="R34">
+        <v>116.210000345328</v>
+      </c>
+      <c r="S34">
+        <v>0.007580334313186816</v>
+      </c>
+      <c r="T34">
+        <v>0.005815310486131149</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0.416583</v>
+      </c>
+      <c r="H35">
+        <v>0.8331660000000001</v>
+      </c>
+      <c r="I35">
+        <v>0.04002375326389206</v>
+      </c>
+      <c r="J35">
+        <v>0.02772144849614155</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>47.50960133333334</v>
+      </c>
+      <c r="N35">
+        <v>142.528804</v>
+      </c>
+      <c r="O35">
+        <v>0.193535760909338</v>
+      </c>
+      <c r="P35">
+        <v>0.2143619332893629</v>
+      </c>
+      <c r="Q35">
+        <v>19.791692252244</v>
+      </c>
+      <c r="R35">
+        <v>118.750153513464</v>
+      </c>
+      <c r="S35">
+        <v>0.00774602754237495</v>
+      </c>
+      <c r="T35">
+        <v>0.005942423293214404</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
         <v>24</v>
       </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>0.4033755962673</v>
-      </c>
-      <c r="H31">
-        <v>0.4033755962673</v>
-      </c>
-      <c r="I31">
-        <v>0.04271370191279979</v>
-      </c>
-      <c r="J31">
-        <v>0.04271370191279979</v>
-      </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>22.0917252885711</v>
-      </c>
-      <c r="N31">
-        <v>22.0917252885711</v>
-      </c>
-      <c r="O31">
-        <v>0.09250795836618125</v>
-      </c>
-      <c r="P31">
-        <v>0.09250795836618125</v>
-      </c>
-      <c r="Q31">
-        <v>8.911262860850758</v>
-      </c>
-      <c r="R31">
-        <v>8.911262860850758</v>
-      </c>
-      <c r="S31">
-        <v>0.003951357358214759</v>
-      </c>
-      <c r="T31">
-        <v>0.003951357358214759</v>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0.416583</v>
+      </c>
+      <c r="H36">
+        <v>0.8331660000000001</v>
+      </c>
+      <c r="I36">
+        <v>0.04002375326389206</v>
+      </c>
+      <c r="J36">
+        <v>0.02772144849614155</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>30.287135</v>
+      </c>
+      <c r="N36">
+        <v>90.861405</v>
+      </c>
+      <c r="O36">
+        <v>0.1233780868179216</v>
+      </c>
+      <c r="P36">
+        <v>0.1366546683236589</v>
+      </c>
+      <c r="Q36">
+        <v>12.617105559705</v>
+      </c>
+      <c r="R36">
+        <v>75.70263335823002</v>
+      </c>
+      <c r="S36">
+        <v>0.004938054104971547</v>
+      </c>
+      <c r="T36">
+        <v>0.003788265349691615</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0.416583</v>
+      </c>
+      <c r="H37">
+        <v>0.8331660000000001</v>
+      </c>
+      <c r="I37">
+        <v>0.04002375326389206</v>
+      </c>
+      <c r="J37">
+        <v>0.02772144849614155</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>22.4578325</v>
+      </c>
+      <c r="N37">
+        <v>44.915665</v>
+      </c>
+      <c r="O37">
+        <v>0.09148453321607808</v>
+      </c>
+      <c r="P37">
+        <v>0.06755272277719647</v>
+      </c>
+      <c r="Q37">
+        <v>9.355551236347502</v>
+      </c>
+      <c r="R37">
+        <v>37.42220494539001</v>
+      </c>
+      <c r="S37">
+        <v>0.003661554384902646</v>
+      </c>
+      <c r="T37">
+        <v>0.00187265932524218</v>
       </c>
     </row>
   </sheetData>
